--- a/biology/Zoologie/Dolichognatha/Dolichognatha.xlsx
+++ b/biology/Zoologie/Dolichognatha/Dolichognatha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dolichognatha est un genre d'araignées aranéomorphes de la famille des Tetragnathidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dolichognatha est un genre d'araignées aranéomorphes de la famille des Tetragnathidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Amérique, en Asie, en Afrique subsaharienne et en Océanie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Amérique, en Asie, en Afrique subsaharienne et en Océanie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 23.5, 08/09/2022)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 23.5, 08/09/2022) :
 Dolichognatha aethiopica Tullgren, 1910
 Dolichognatha albida (Simon, 1895)
 Dolichognatha baforti (Legendre, 1967)
@@ -605,12 +621,14 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit par O. Pickard-Cambridge en 1869.
-Landana[3], Paraebius[4], Prolochus[5], Nicholasia[6] et Afiamalu[7] ont été placés en synonymie par Levi en 1981[8].
-Homalopoltys[9] a été placé en synonymie par Smith en 2008[10].
-Atimiosa[11] a été placé en synonymie par Dimitrov, Álvarez-Padilla et Hormiga en 2010[12].
+Landana, Paraebius, Prolochus, Nicholasia et Afiamalu ont été placés en synonymie par Levi en 1981.
+Homalopoltys a été placé en synonymie par Smith en 2008.
+Atimiosa a été placé en synonymie par Dimitrov, Álvarez-Padilla et Hormiga en 2010.
 </t>
         </is>
       </c>
@@ -639,7 +657,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>O. Pickard-Cambridge, 1869 : « Catalogue of a collection of Ceylon Araneida lately received from Mr J. Nietner, with descriptions of new species and characters of a new genus. I. » The Journal of the Linnean Society of London, Zoology, vol. 10, p. 373-397 (texte intégral).</t>
         </is>
